--- a/biology/Microbiologie/Rickettsiales/Rickettsiales.xlsx
+++ b/biology/Microbiologie/Rickettsiales/Rickettsiales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Rickettsiales sont un ordre de petites Proteobacteria. La plupart de celles qui ont été décrites ne survivent que comme endosymbiotes d'autres cellules. Certaines sont des pathogènes notoires comme le genre Rickettsia, qui provoque diverses maladies humaines. À l'autre extrémité de l'échelle, des études génétiques viennent étayer l'hypothèse que des membres de ce groupe seraient à l'origine des mitochondries (théorie endosymbiotique). D'autres ont également spéculé sur le fait que les virus pourraient s'être développés à partir d'eux ou d'organismes apparentés.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Rickettsiaceae
 Ehrlichiaceae
